--- a/data/trans_bre/P3A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>30.62001160610887</v>
+        <v>30.19053449368819</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>27.36436207804503</v>
+        <v>26.5944305092743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28.04649309197107</v>
+        <v>28.18481148894387</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9.90929753519619</v>
+        <v>8.872428536187662</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.484963439435345</v>
+        <v>1.454929349083045</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9719496958508456</v>
+        <v>1.000401967186746</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8497783031512882</v>
+        <v>0.857949042813829</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1810055019608491</v>
+        <v>0.1585802460697702</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>41.51551590449888</v>
+        <v>41.41061453814547</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>39.11946243574184</v>
+        <v>39.83595431280732</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41.11621109137916</v>
+        <v>41.10826439934104</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31.76340820127026</v>
+        <v>29.85535087143863</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.876368677366032</v>
+        <v>2.85873960273369</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.880026822781053</v>
+        <v>1.941614659069449</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.638233879853304</v>
+        <v>1.608281932083396</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7464473457516771</v>
+        <v>0.7035546252959251</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>29.12480757454037</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27.13397316425167</v>
+        <v>27.13397316425165</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.037910025312864</v>
@@ -749,7 +749,7 @@
         <v>0.4901605121646536</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4130649222635972</v>
+        <v>0.4130649222635967</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>39.14302571518171</v>
+        <v>39.23559621829442</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>33.75530655761093</v>
+        <v>33.49431795587918</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>23.78137236411031</v>
+        <v>23.94946308654645</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21.34921103606653</v>
+        <v>21.01962797161661</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8550562486600692</v>
+        <v>0.8663422137058349</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6348197402631314</v>
+        <v>0.6311025251920522</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3782535241922506</v>
+        <v>0.380332544450412</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.301141597822473</v>
+        <v>0.2990288695449996</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>48.2133675233265</v>
+        <v>48.49742753129718</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>43.17313239621739</v>
+        <v>43.24564380546524</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>33.63859855282316</v>
+        <v>33.8299766712483</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33.92460423258828</v>
+        <v>33.29656472892326</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.244363550273509</v>
+        <v>1.254885163745062</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9278099502532015</v>
+        <v>0.9365137341359504</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6063987648553114</v>
+        <v>0.6091145412348794</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5668373489385945</v>
+        <v>0.5530706110270706</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>47.26751299607248</v>
+        <v>47.42469258792426</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>32.55751320466418</v>
+        <v>32.88925754159801</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25.15259854282352</v>
+        <v>24.99097599927064</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18.03699984587388</v>
+        <v>18.07727500812299</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.042707869301245</v>
+        <v>1.064109886122273</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5376657968784206</v>
+        <v>0.5374285555595651</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3584576203154741</v>
+        <v>0.3538818147814361</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2286858555815705</v>
+        <v>0.2298221014980376</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>56.14390487279329</v>
+        <v>56.07222255010941</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>41.40000462748189</v>
+        <v>41.53571724801712</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32.84530365378268</v>
+        <v>32.82387197066725</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25.64653999812936</v>
+        <v>25.9058240185978</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.490201170134886</v>
+        <v>1.491684533159072</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7683935745610152</v>
+        <v>0.7755078524006683</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5185230312484616</v>
+        <v>0.5147230169104557</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3594231661435907</v>
+        <v>0.3616685971876856</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>35.83697704086148</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24.96671282335262</v>
+        <v>24.96671282335261</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.840822526548378</v>
@@ -949,7 +949,7 @@
         <v>0.6026488899800286</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3450069363488835</v>
+        <v>0.3450069363488833</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>56.05961665031167</v>
+        <v>56.21202873948935</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>39.61972229369579</v>
+        <v>39.99554788358546</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31.02056122670946</v>
+        <v>31.75177102700849</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21.58387389784114</v>
+        <v>21.46430380840874</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.485029958316287</v>
+        <v>1.510281907562768</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7488610160085545</v>
+        <v>0.76036582393157</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4914540255823001</v>
+        <v>0.5096085160497944</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2843167165825832</v>
+        <v>0.2835179399842663</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>65.78145243935725</v>
+        <v>65.60400430555077</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>49.39826483517062</v>
+        <v>49.89182301016276</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>39.81843064989736</v>
+        <v>40.45999423184536</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>28.81990222673184</v>
+        <v>28.47728333203097</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.243366080230915</v>
+        <v>2.284726023564735</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.100149135826715</v>
+        <v>1.1136662895334</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7155817777201703</v>
+        <v>0.7430023824984715</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4171412079814856</v>
+        <v>0.4122990740130942</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>44.34262991548781</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28.29110437983958</v>
+        <v>28.29110437983962</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>2.727746178657627</v>
@@ -1049,7 +1049,7 @@
         <v>0.8679513020982438</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4118952582185179</v>
+        <v>0.4118952582185185</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>64.04022185715279</v>
+        <v>64.41456000689388</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>45.3383389688298</v>
+        <v>46.39812616252363</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39.55485244931682</v>
+        <v>38.97636212612023</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24.60292733031393</v>
+        <v>24.94474940099593</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>2.177945241035378</v>
+        <v>2.180965216757782</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.058438750676425</v>
+        <v>1.072657349442216</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7086374391989486</v>
+        <v>0.6940261172273128</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3426891403331987</v>
+        <v>0.3485122705592255</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>73.73827975586491</v>
+        <v>73.91970261537806</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>57.05848550744504</v>
+        <v>57.46841777047592</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49.78256265291453</v>
+        <v>49.49759860510544</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32.03879378193619</v>
+        <v>31.91337467836625</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.509429767790352</v>
+        <v>3.527585980740595</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.689681367857985</v>
+        <v>1.685486120105223</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.076259094348056</v>
+        <v>1.066756708440866</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4940160260415176</v>
+        <v>0.4902146676562686</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>46.17039987185557</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31.71532827877378</v>
+        <v>31.71532827877377</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.254560505243567</v>
@@ -1149,7 +1149,7 @@
         <v>0.9910275301823737</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.5070427393997065</v>
+        <v>0.5070427393997062</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>42.12829408536171</v>
+        <v>43.32579779055726</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>44.36787668265877</v>
+        <v>44.75956846363823</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>39.80221105331338</v>
+        <v>40.00663790374478</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27.54034405417773</v>
+        <v>27.46373814678154</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9264453003193146</v>
+        <v>0.9517091242096308</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.074080643920421</v>
+        <v>1.089293150808852</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7682912956940903</v>
+        <v>0.7759311090139852</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4152998078607912</v>
+        <v>0.4145599190347061</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>56.02385440326977</v>
+        <v>56.02469213872967</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>57.78094008539711</v>
+        <v>58.22358219915817</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>52.31932820099617</v>
+        <v>52.00132622784724</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>36.13446085200072</v>
+        <v>36.48347392411008</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.615381461014997</v>
+        <v>1.612852820829753</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.86198944226482</v>
+        <v>1.867464337074007</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.280730801822736</v>
+        <v>1.257519518443486</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6158246218195748</v>
+        <v>0.6243938137418936</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>28.96351702816736</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25.69283752068118</v>
+        <v>25.69283752068114</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9775717825044546</v>
@@ -1249,7 +1249,7 @@
         <v>0.7567743822670935</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.5234195393089973</v>
+        <v>0.5234195393089962</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>25.85372438579742</v>
+        <v>25.45894652763436</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>20.79732198409388</v>
+        <v>19.01850100303212</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>21.354878752561</v>
+        <v>21.09755331673059</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20.47118830461021</v>
+        <v>19.98983084363223</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6339909240936723</v>
+        <v>0.5977525912117142</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5962254875330831</v>
+        <v>0.522727507528449</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4964245358460846</v>
+        <v>0.48705049886528</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3908021029377071</v>
+        <v>0.3716666157972502</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>42.41189879978446</v>
+        <v>42.67333062966456</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>35.97929026290926</v>
+        <v>35.99003999979107</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36.52280780845712</v>
+        <v>36.22008724747965</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>31.10481986781386</v>
+        <v>31.49165545283799</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.429462135548472</v>
+        <v>1.401785101963546</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.458876558152584</v>
+        <v>1.356115064211243</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.080591057046024</v>
+        <v>1.072764266567504</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7020461494374552</v>
+        <v>0.7037237303168836</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>47.79756877134323</v>
+        <v>47.63101433768679</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>37.59725639114482</v>
+        <v>37.64528737338964</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32.37106202750736</v>
+        <v>32.1368944364745</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23.27177402312205</v>
+        <v>23.13400404791</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1.341216295503924</v>
+        <v>1.329736050061783</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8325969498443565</v>
+        <v>0.8300952967021973</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5942356427274974</v>
+        <v>0.5890848571112731</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3480311888705003</v>
+        <v>0.3442563606962628</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>51.87944953805014</v>
+        <v>51.78796518749205</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>41.88892295997069</v>
+        <v>42.06562315134375</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>36.50890048379221</v>
+        <v>36.39135717626836</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>27.17241778759495</v>
+        <v>27.20880241906897</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.590282310516077</v>
+        <v>1.576230975101897</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9967610095058264</v>
+        <v>1.000114390940043</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7100578150720971</v>
+        <v>0.7057409898877325</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4261865116735543</v>
+        <v>0.4259763048467824</v>
       </c>
     </row>
     <row r="28">
